--- a/Job_Postings_20250625_004828.xlsx
+++ b/Job_Postings_20250625_004828.xlsx
@@ -2,25 +2,29 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
-  <workbookPr/>
+  <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Assessment 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{958C5E25-15E5-4C64-9DA2-977EF39FF13B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{370A4876-BBFD-4CFC-B4E8-E156B7E4889D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
+  <pivotCaches>
+    <pivotCache cacheId="9" r:id="rId3"/>
+  </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="776" uniqueCount="127">
   <si>
     <t>Role</t>
   </si>
@@ -398,6 +402,9 @@
   </si>
   <si>
     <t>Monster</t>
+  </si>
+  <si>
+    <t>Count of Vertical/Industry</t>
   </si>
 </sst>
 </file>
@@ -453,11 +460,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -473,6 +482,3217 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[Job_Postings_20250625_004828.xlsx]Sheet2!PivotTable5</c:name>
+    <c:fmtId val="2"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-IN"/>
+              <a:t>Count of Vertical/Industry</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$A$4:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>DevOps &amp; BI</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ERP</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Infra &amp; BT</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>QA/QE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$4:$B$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-40F3-4523-89A1-37664E4563D9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="943840175"/>
+        <c:axId val="943841615"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="943840175"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="943841615"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="943841615"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="943840175"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[Job_Postings_20250625_004828.xlsx]Sheet2!PivotTable5</c:name>
+    <c:fmtId val="0"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-IN"/>
+              <a:t>Count of Vertical/Industry</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$A$4:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>DevOps &amp; BI</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ERP</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Infra &amp; BT</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>QA/QE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$4:$B$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6C23-40EC-A695-49C0D7F69E1A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="943840175"/>
+        <c:axId val="943841615"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="943840175"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="943841615"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="943841615"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="943840175"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>297180</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>601980</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3528401C-1133-4963-821C-35FB7F01D700}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>167640</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>41910</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>472440</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>41910</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3B77946-4846-BD60-17E4-AAFAC1181FE1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Akshat Jain" refreshedDate="45833.639212499998" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="109" xr:uid="{BC69823B-23E5-45DA-ABFE-3398C8EBD5AF}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:G110" sheet="Sheet1"/>
+  </cacheSource>
+  <cacheFields count="7">
+    <cacheField name="Role" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Vertical/Industry" numFmtId="0">
+      <sharedItems count="4">
+        <s v="ERP"/>
+        <s v="Infra &amp; BT"/>
+        <s v="DevOps &amp; BI"/>
+        <s v="QA/QE"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="State" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Platform" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Job Posting Date" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Contract Duration" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Capture Date" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="109">
+  <r>
+    <s v="SAP OTC S/4 HANA Functional Analyst  (Max $58/hr W2)"/>
+    <x v="0"/>
+    <s v="NC"/>
+    <s v="Dice"/>
+    <s v="2025-06-24"/>
+    <s v="Contract"/>
+    <s v="2025-06-25"/>
+  </r>
+  <r>
+    <s v="SAP Consultant"/>
+    <x v="0"/>
+    <s v="United States"/>
+    <s v="LinkedIn"/>
+    <s v="2025-06-24"/>
+    <s v="Contract"/>
+    <s v="2025-06-25"/>
+  </r>
+  <r>
+    <s v="SAP Consultant"/>
+    <x v="0"/>
+    <s v="TX"/>
+    <s v="LinkedIn"/>
+    <s v="2025-06-24"/>
+    <s v="Contract"/>
+    <s v="2025-06-25"/>
+  </r>
+  <r>
+    <s v="*** **********"/>
+    <x v="0"/>
+    <s v="**"/>
+    <s v="Dice"/>
+    <s v="2025-06-24"/>
+    <s v="Contract"/>
+    <s v="2025-06-25"/>
+  </r>
+  <r>
+    <s v="****** ***** ******* ***"/>
+    <x v="0"/>
+    <s v="**"/>
+    <s v="LinkedIn"/>
+    <s v="2025-06-23"/>
+    <s v="Contract"/>
+    <s v="2025-06-25"/>
+  </r>
+  <r>
+    <s v="****** *** **********"/>
+    <x v="0"/>
+    <s v="**"/>
+    <s v="Dice"/>
+    <s v="2025-06-24"/>
+    <s v="Contract"/>
+    <s v="2025-06-25"/>
+  </r>
+  <r>
+    <s v="****** ***** ******* ********"/>
+    <x v="0"/>
+    <s v="****** ******"/>
+    <s v="LinkedIn"/>
+    <s v="2025-06-24"/>
+    <s v="Contract"/>
+    <s v="2025-06-25"/>
+  </r>
+  <r>
+    <s v="Oracle TCA - Techno Functional Consultant"/>
+    <x v="0"/>
+    <s v="OH"/>
+    <s v="Dice"/>
+    <s v="2025-06-24"/>
+    <s v="Contract"/>
+    <s v="2025-06-25"/>
+  </r>
+  <r>
+    <s v="Business Data Analyst / Fully remote / SQL"/>
+    <x v="0"/>
+    <s v="TX"/>
+    <s v="LinkedIn"/>
+    <s v="2025-06-24"/>
+    <s v="Contract"/>
+    <s v="2025-06-25"/>
+  </r>
+  <r>
+    <s v="Oracle Technical Consultant"/>
+    <x v="0"/>
+    <s v="GA"/>
+    <s v="LinkedIn"/>
+    <s v="2025-06-24"/>
+    <s v="Contract"/>
+    <s v="2025-06-25"/>
+  </r>
+  <r>
+    <s v="****** *********"/>
+    <x v="0"/>
+    <s v="****** ******"/>
+    <s v="Dice"/>
+    <s v="2025-06-24"/>
+    <s v="Contract"/>
+    <s v="2025-06-25"/>
+  </r>
+  <r>
+    <s v="****** ********* **********"/>
+    <x v="0"/>
+    <s v="**"/>
+    <s v="LinkedIn"/>
+    <s v="2025-06-23"/>
+    <s v="Contract"/>
+    <s v="2025-06-25"/>
+  </r>
+  <r>
+    <s v="****** ********** **** (*** &amp; ** ****)"/>
+    <x v="0"/>
+    <s v="****** ******"/>
+    <s v="Monster"/>
+    <s v="2025-06-24"/>
+    <s v="Contract"/>
+    <s v="2025-06-25"/>
+  </r>
+  <r>
+    <s v="****** ******** ************ **********"/>
+    <x v="0"/>
+    <s v="****** ******"/>
+    <s v="LinkedIn"/>
+    <s v="2025-06-24"/>
+    <s v="Contract"/>
+    <s v="2025-06-25"/>
+  </r>
+  <r>
+    <s v="Cloud Security Engineer  (Remote)"/>
+    <x v="1"/>
+    <s v="United States"/>
+    <s v="Dice"/>
+    <s v="2025-06-24"/>
+    <s v="Contract"/>
+    <s v="2025-06-25"/>
+  </r>
+  <r>
+    <s v="Cloud Engineer"/>
+    <x v="1"/>
+    <s v="CO"/>
+    <s v="LinkedIn"/>
+    <s v="2025-06-24"/>
+    <s v="Contract"/>
+    <s v="2025-06-25"/>
+  </r>
+  <r>
+    <s v="Systems Engineer"/>
+    <x v="1"/>
+    <s v="Kansas City Metropolitan Area"/>
+    <s v="Dice"/>
+    <s v="2025-06-24"/>
+    <s v="Contract"/>
+    <s v="2025-06-25"/>
+  </r>
+  <r>
+    <s v="Infrastructure Engineer"/>
+    <x v="1"/>
+    <s v="OH"/>
+    <s v="LinkedIn"/>
+    <s v="2025-06-24"/>
+    <s v="Contract"/>
+    <s v="2025-06-25"/>
+  </r>
+  <r>
+    <s v="Infrastructure Engineer"/>
+    <x v="1"/>
+    <s v="SC"/>
+    <s v="Dice"/>
+    <s v="2025-06-24"/>
+    <s v="Contract"/>
+    <s v="2025-06-25"/>
+  </r>
+  <r>
+    <s v="Windows System Engineer"/>
+    <x v="1"/>
+    <s v="PA"/>
+    <s v="LinkedIn"/>
+    <s v="2025-06-24"/>
+    <s v="Contract"/>
+    <s v="2025-06-25"/>
+  </r>
+  <r>
+    <s v="Cloud Engineer"/>
+    <x v="1"/>
+    <s v="AZ"/>
+    <s v="Dice"/>
+    <s v="2025-06-24"/>
+    <s v="Contract"/>
+    <s v="2025-06-25"/>
+  </r>
+  <r>
+    <s v="System Engineer"/>
+    <x v="1"/>
+    <s v="AZ"/>
+    <s v="LinkedIn"/>
+    <s v="2025-06-24"/>
+    <s v="Contract"/>
+    <s v="2025-06-25"/>
+  </r>
+  <r>
+    <s v="Linux Engineer"/>
+    <x v="1"/>
+    <s v="CA"/>
+    <s v="Monster"/>
+    <s v="2025-06-24"/>
+    <s v="Contract"/>
+    <s v="2025-06-25"/>
+  </r>
+  <r>
+    <s v="System Engineer"/>
+    <x v="1"/>
+    <s v="NC"/>
+    <s v="LinkedIn"/>
+    <s v="2025-06-24"/>
+    <s v="Contract"/>
+    <s v="2025-06-25"/>
+  </r>
+  <r>
+    <s v="System Engineer"/>
+    <x v="1"/>
+    <s v="CA"/>
+    <s v="Dice"/>
+    <s v="2025-06-23"/>
+    <s v="Contract"/>
+    <s v="2025-06-25"/>
+  </r>
+  <r>
+    <s v="System Engineer"/>
+    <x v="1"/>
+    <s v="United States"/>
+    <s v="LinkedIn"/>
+    <s v="2025-06-24"/>
+    <s v="Contract"/>
+    <s v="2025-06-25"/>
+  </r>
+  <r>
+    <s v="Virtualization Systems Engineer"/>
+    <x v="1"/>
+    <s v="NJ"/>
+    <s v="Monster"/>
+    <s v="2025-06-24"/>
+    <s v="Contract"/>
+    <s v="2025-06-25"/>
+  </r>
+  <r>
+    <s v="Cloud Engineer"/>
+    <x v="1"/>
+    <s v="NJ"/>
+    <s v="LinkedIn"/>
+    <s v="2025-06-23"/>
+    <s v="Contract"/>
+    <s v="2025-06-25"/>
+  </r>
+  <r>
+    <s v="System Engineer"/>
+    <x v="1"/>
+    <s v="NC"/>
+    <s v="Dice"/>
+    <s v="2025-06-24"/>
+    <s v="Contract"/>
+    <s v="2025-06-25"/>
+  </r>
+  <r>
+    <s v="Cloud Platform Engineer"/>
+    <x v="1"/>
+    <s v="FL"/>
+    <s v="LinkedIn"/>
+    <s v="2025-06-24"/>
+    <s v="Contract"/>
+    <s v="2025-06-25"/>
+  </r>
+  <r>
+    <s v="System Engineer"/>
+    <x v="1"/>
+    <s v="Texas Metropolitan Area"/>
+    <s v="Dice"/>
+    <s v="2025-06-23"/>
+    <s v="Contract"/>
+    <s v="2025-06-25"/>
+  </r>
+  <r>
+    <s v="OT Windows System Engineer"/>
+    <x v="1"/>
+    <s v="CO"/>
+    <s v="LinkedIn"/>
+    <s v="2025-06-24"/>
+    <s v="Contract"/>
+    <s v="2025-06-25"/>
+  </r>
+  <r>
+    <s v="DevOps Engineer"/>
+    <x v="1"/>
+    <s v="CA"/>
+    <s v="Dice"/>
+    <s v="2025-06-24"/>
+    <s v="Contract"/>
+    <s v="2025-06-25"/>
+  </r>
+  <r>
+    <s v="Cloud Engineer (441234)"/>
+    <x v="1"/>
+    <s v="GA"/>
+    <s v="LinkedIn"/>
+    <s v="2025-06-24"/>
+    <s v="Contract"/>
+    <s v="2025-06-25"/>
+  </r>
+  <r>
+    <s v="Cloud Data Engineer"/>
+    <x v="1"/>
+    <s v="United States"/>
+    <s v="LinkedIn"/>
+    <s v="2025-06-23"/>
+    <s v="Contract"/>
+    <s v="2025-06-25"/>
+  </r>
+  <r>
+    <s v="DevOps Engineer"/>
+    <x v="1"/>
+    <s v="United States"/>
+    <s v="LinkedIn"/>
+    <s v="2025-06-24"/>
+    <s v="Contract"/>
+    <s v="2025-06-25"/>
+  </r>
+  <r>
+    <s v="Senior Infrastructure Engineer"/>
+    <x v="1"/>
+    <s v="FL"/>
+    <s v="Dice"/>
+    <s v="2025-06-24"/>
+    <s v="Contract"/>
+    <s v="2025-06-25"/>
+  </r>
+  <r>
+    <s v="Cloud Engineer"/>
+    <x v="1"/>
+    <s v="TX"/>
+    <s v="Dice"/>
+    <s v="2025-06-23"/>
+    <s v="Contract"/>
+    <s v="2025-06-25"/>
+  </r>
+  <r>
+    <s v="Cloud Engineer"/>
+    <x v="1"/>
+    <s v="UT"/>
+    <s v="LinkedIn"/>
+    <s v="2025-06-23"/>
+    <s v="Contract"/>
+    <s v="2025-06-25"/>
+  </r>
+  <r>
+    <s v="Systems Engineer"/>
+    <x v="1"/>
+    <s v="WA"/>
+    <s v="Dice"/>
+    <s v="2025-06-24"/>
+    <s v="Contract"/>
+    <s v="2025-06-25"/>
+  </r>
+  <r>
+    <s v="System Support Engineer"/>
+    <x v="1"/>
+    <s v="NJ"/>
+    <s v="LinkedIn"/>
+    <s v="2025-06-24"/>
+    <s v="Contract"/>
+    <s v="2025-06-25"/>
+  </r>
+  <r>
+    <s v="DevSecOps Engineer"/>
+    <x v="1"/>
+    <s v="VA"/>
+    <s v="Monster"/>
+    <s v="2025-06-24"/>
+    <s v="Contract"/>
+    <s v="2025-06-25"/>
+  </r>
+  <r>
+    <s v="Network Infrastructure Engineer"/>
+    <x v="1"/>
+    <s v="CA"/>
+    <s v="LinkedIn"/>
+    <s v="2025-06-24"/>
+    <s v="Contract"/>
+    <s v="2025-06-25"/>
+  </r>
+  <r>
+    <s v="AWS Infrastructure Architect"/>
+    <x v="1"/>
+    <s v="United States"/>
+    <s v="LinkedIn"/>
+    <s v="2025-06-24"/>
+    <s v="Contract"/>
+    <s v="2025-06-25"/>
+  </r>
+  <r>
+    <s v="Network Engineer (Fortinet Experience)"/>
+    <x v="1"/>
+    <s v="WI"/>
+    <s v="Monster"/>
+    <s v="2025-06-24"/>
+    <s v="Contract"/>
+    <s v="2025-06-25"/>
+  </r>
+  <r>
+    <s v="AWS Cloud Engineer Lead (contract)"/>
+    <x v="1"/>
+    <s v="SC"/>
+    <s v="LinkedIn"/>
+    <s v="2025-06-24"/>
+    <s v="Contract"/>
+    <s v="2025-06-25"/>
+  </r>
+  <r>
+    <s v="OT System Engineer"/>
+    <x v="1"/>
+    <s v="TX"/>
+    <s v="Monster"/>
+    <s v="2025-06-23"/>
+    <s v="Contract"/>
+    <s v="2025-06-25"/>
+  </r>
+  <r>
+    <s v="IT Network Engineer"/>
+    <x v="1"/>
+    <s v="United States"/>
+    <s v="LinkedIn"/>
+    <s v="2025-06-24"/>
+    <s v="Contract"/>
+    <s v="2025-06-25"/>
+  </r>
+  <r>
+    <s v="Network Engineer"/>
+    <x v="1"/>
+    <s v="FL"/>
+    <s v="Dice"/>
+    <s v="2025-06-23"/>
+    <s v="Contract"/>
+    <s v="2025-06-25"/>
+  </r>
+  <r>
+    <s v="Infrastructure Architect – Storage Focus"/>
+    <x v="1"/>
+    <s v="CA"/>
+    <s v="LinkedIn"/>
+    <s v="2025-06-24"/>
+    <s v="Contract"/>
+    <s v="2025-06-25"/>
+  </r>
+  <r>
+    <s v="F5 Load Balance Network Engineer"/>
+    <x v="1"/>
+    <s v="CA"/>
+    <s v="LinkedIn"/>
+    <s v="2025-06-24"/>
+    <s v="Contract"/>
+    <s v="2025-06-25"/>
+  </r>
+  <r>
+    <s v="Systems Engineer"/>
+    <x v="1"/>
+    <s v="NC"/>
+    <s v="Monster"/>
+    <s v="2025-06-24"/>
+    <s v="Contract"/>
+    <s v="2025-06-25"/>
+  </r>
+  <r>
+    <s v="Network Engineer - II"/>
+    <x v="1"/>
+    <s v="NC"/>
+    <s v="LinkedIn"/>
+    <s v="2025-06-24"/>
+    <s v="Contract"/>
+    <s v="2025-06-25"/>
+  </r>
+  <r>
+    <s v="QA Test Engineer (Azure cloud)"/>
+    <x v="1"/>
+    <s v="MI"/>
+    <s v="Monster"/>
+    <s v="2025-06-24"/>
+    <s v="Contract"/>
+    <s v="2025-06-25"/>
+  </r>
+  <r>
+    <s v="Network Engineer - III"/>
+    <x v="1"/>
+    <s v="NJ"/>
+    <s v="LinkedIn"/>
+    <s v="2025-06-23"/>
+    <s v="Contract"/>
+    <s v="2025-06-25"/>
+  </r>
+  <r>
+    <s v="HVAC Systems Engineer"/>
+    <x v="1"/>
+    <s v="NC"/>
+    <s v="Dice"/>
+    <s v="2025-06-24"/>
+    <s v="Contract"/>
+    <s v="2025-06-25"/>
+  </r>
+  <r>
+    <s v="System Design Engineer"/>
+    <x v="1"/>
+    <s v="WA"/>
+    <s v="LinkedIn"/>
+    <s v="2025-06-24"/>
+    <s v="Contract"/>
+    <s v="2025-06-25"/>
+  </r>
+  <r>
+    <s v="Principle Network Engineer"/>
+    <x v="1"/>
+    <s v="PA"/>
+    <s v="Monster"/>
+    <s v="2025-06-24"/>
+    <s v="Contract"/>
+    <s v="2025-06-25"/>
+  </r>
+  <r>
+    <s v="Network Engineer"/>
+    <x v="1"/>
+    <s v="TX"/>
+    <s v="LinkedIn"/>
+    <s v="2025-06-24"/>
+    <s v="Contract"/>
+    <s v="2025-06-25"/>
+  </r>
+  <r>
+    <s v="Network Engineer"/>
+    <x v="1"/>
+    <s v="Washington DC-Baltimore Area"/>
+    <s v="LinkedIn"/>
+    <s v="2025-06-24"/>
+    <s v="Contract"/>
+    <s v="2025-06-25"/>
+  </r>
+  <r>
+    <s v="Software Engineer"/>
+    <x v="1"/>
+    <s v="GA"/>
+    <s v="Monster"/>
+    <s v="2025-06-24"/>
+    <s v="Contract"/>
+    <s v="2025-06-25"/>
+  </r>
+  <r>
+    <s v="Service Desk Engineer"/>
+    <x v="1"/>
+    <s v="United States"/>
+    <s v="LinkedIn"/>
+    <s v="2025-06-23"/>
+    <s v="Contract"/>
+    <s v="2025-06-25"/>
+  </r>
+  <r>
+    <s v="Network Support Engineer (Contract Role)"/>
+    <x v="1"/>
+    <s v="United States"/>
+    <s v="Dice"/>
+    <s v="2025-06-23"/>
+    <s v="Contract"/>
+    <s v="2025-06-25"/>
+  </r>
+  <r>
+    <s v="Network Engineer"/>
+    <x v="1"/>
+    <s v="MA"/>
+    <s v="LinkedIn"/>
+    <s v="2025-06-23"/>
+    <s v="Contract"/>
+    <s v="2025-06-25"/>
+  </r>
+  <r>
+    <s v="Senior AIX Systems Engineer – Infrastructure &amp; Automation"/>
+    <x v="1"/>
+    <s v="United States"/>
+    <s v="LinkedIn"/>
+    <s v="2025-06-24"/>
+    <s v="Contract"/>
+    <s v="2025-06-25"/>
+  </r>
+  <r>
+    <s v="AWS Cloud Engineer"/>
+    <x v="1"/>
+    <s v="FL"/>
+    <s v="LinkedIn"/>
+    <s v="2025-06-24"/>
+    <s v="Contract"/>
+    <s v="2025-06-25"/>
+  </r>
+  <r>
+    <s v="Security Architect - Infrastructure Hardening &amp; Ransomware"/>
+    <x v="1"/>
+    <s v="United States"/>
+    <s v="LinkedIn"/>
+    <s v="2025-06-24"/>
+    <s v="Contract"/>
+    <s v="2025-06-25"/>
+  </r>
+  <r>
+    <s v="Network Security Engineer"/>
+    <x v="1"/>
+    <s v="Dallas-Fort Worth Metroplex"/>
+    <s v="LinkedIn"/>
+    <s v="2025-06-23"/>
+    <s v="Contract"/>
+    <s v="2025-06-25"/>
+  </r>
+  <r>
+    <s v="Information Technology Analyst"/>
+    <x v="1"/>
+    <s v="United States"/>
+    <s v="LinkedIn"/>
+    <s v="2025-06-24"/>
+    <s v="Contract"/>
+    <s v="2025-06-25"/>
+  </r>
+  <r>
+    <s v="Network Engineer"/>
+    <x v="1"/>
+    <s v="CA"/>
+    <s v="Dice"/>
+    <s v="2025-06-24"/>
+    <s v="Contract"/>
+    <s v="2025-06-25"/>
+  </r>
+  <r>
+    <s v="Network Engineer"/>
+    <x v="1"/>
+    <s v="NC"/>
+    <s v="LinkedIn"/>
+    <s v="2025-06-24"/>
+    <s v="Contract"/>
+    <s v="2025-06-25"/>
+  </r>
+  <r>
+    <s v="Systems Engineer IV (Blue Coat/ Proxy)"/>
+    <x v="1"/>
+    <s v="NC"/>
+    <s v="LinkedIn"/>
+    <s v="2025-06-23"/>
+    <s v="Contract"/>
+    <s v="2025-06-25"/>
+  </r>
+  <r>
+    <s v="Network Security Engineer"/>
+    <x v="1"/>
+    <s v="NY"/>
+    <s v="LinkedIn"/>
+    <s v="2025-06-24"/>
+    <s v="Contract"/>
+    <s v="2025-06-25"/>
+  </r>
+  <r>
+    <s v="Network Engineer"/>
+    <x v="1"/>
+    <s v="United States"/>
+    <s v="LinkedIn"/>
+    <s v="2025-06-24"/>
+    <s v="Contract"/>
+    <s v="2025-06-25"/>
+  </r>
+  <r>
+    <s v="Sr. Product Manager"/>
+    <x v="1"/>
+    <s v="TX"/>
+    <s v="LinkedIn"/>
+    <s v="2025-06-23"/>
+    <s v="Contract"/>
+    <s v="2025-06-25"/>
+  </r>
+  <r>
+    <s v="Information Technology Business Analyst"/>
+    <x v="1"/>
+    <s v="United States"/>
+    <s v="LinkedIn"/>
+    <s v="2025-06-24"/>
+    <s v="Contract"/>
+    <s v="2025-06-25"/>
+  </r>
+  <r>
+    <s v="Business Analyst - III"/>
+    <x v="1"/>
+    <s v="CA"/>
+    <s v="Dice"/>
+    <s v="2025-06-23"/>
+    <s v="Contract"/>
+    <s v="2025-06-25"/>
+  </r>
+  <r>
+    <s v="******** **** ******* / ***** ****** / ***"/>
+    <x v="1"/>
+    <s v="**"/>
+    <s v="LinkedIn"/>
+    <s v="2025-06-24"/>
+    <s v="Contract"/>
+    <s v="2025-06-25"/>
+  </r>
+  <r>
+    <s v="******** *******"/>
+    <x v="1"/>
+    <s v="****** ******"/>
+    <s v="LinkedIn"/>
+    <s v="2025-06-23"/>
+    <s v="Contract"/>
+    <s v="2025-06-25"/>
+  </r>
+  <r>
+    <s v="******** ******* (*******, **.)"/>
+    <x v="1"/>
+    <s v="**"/>
+    <s v="Monster"/>
+    <s v="2025-06-23"/>
+    <s v="Contract"/>
+    <s v="2025-06-25"/>
+  </r>
+  <r>
+    <s v="****** ** ******* *******"/>
+    <x v="1"/>
+    <s v="**"/>
+    <s v="LinkedIn"/>
+    <s v="2025-06-23"/>
+    <s v="Contract"/>
+    <s v="2025-06-25"/>
+  </r>
+  <r>
+    <s v="DevOps Engineer"/>
+    <x v="2"/>
+    <s v="United States"/>
+    <s v="Monster"/>
+    <s v="2025-06-24"/>
+    <s v="Contract"/>
+    <s v="2025-06-25"/>
+  </r>
+  <r>
+    <s v="DevOps Engineer"/>
+    <x v="2"/>
+    <s v="United States"/>
+    <s v="LinkedIn"/>
+    <s v="2025-06-24"/>
+    <s v="Contract"/>
+    <s v="2025-06-25"/>
+  </r>
+  <r>
+    <s v="DevOps Engineer"/>
+    <x v="2"/>
+    <s v="VA"/>
+    <s v="Dice"/>
+    <s v="2025-06-24"/>
+    <s v="Contract"/>
+    <s v="2025-06-25"/>
+  </r>
+  <r>
+    <s v="****** ********"/>
+    <x v="2"/>
+    <s v="**"/>
+    <s v="LinkedIn"/>
+    <s v="2025-06-24"/>
+    <s v="Contract"/>
+    <s v="2025-06-25"/>
+  </r>
+  <r>
+    <s v="***** ********"/>
+    <x v="2"/>
+    <s v="**"/>
+    <s v="Monster"/>
+    <s v="2025-06-24"/>
+    <s v="Contract"/>
+    <s v="2025-06-25"/>
+  </r>
+  <r>
+    <s v="****** ********"/>
+    <x v="2"/>
+    <s v="**"/>
+    <s v="LinkedIn"/>
+    <s v="2025-06-24"/>
+    <s v="Contract"/>
+    <s v="2025-06-25"/>
+  </r>
+  <r>
+    <s v="***** ******** ********  (******)"/>
+    <x v="2"/>
+    <s v="****** ******"/>
+    <s v="Monster"/>
+    <s v="2025-06-24"/>
+    <s v="Contract"/>
+    <s v="2025-06-25"/>
+  </r>
+  <r>
+    <s v="Business Intelligence Analyst"/>
+    <x v="2"/>
+    <s v="IL"/>
+    <s v="LinkedIn"/>
+    <s v="2025-06-23"/>
+    <s v="Contract"/>
+    <s v="2025-06-25"/>
+  </r>
+  <r>
+    <s v="Data Analyst"/>
+    <x v="2"/>
+    <s v="Charlotte Metro"/>
+    <s v="LinkedIn"/>
+    <s v="2025-06-24"/>
+    <s v="Contract"/>
+    <s v="2025-06-25"/>
+  </r>
+  <r>
+    <s v="Data Analyst"/>
+    <x v="2"/>
+    <s v="NC"/>
+    <s v="Monster"/>
+    <s v="2025-06-24"/>
+    <s v="Contract"/>
+    <s v="2025-06-25"/>
+  </r>
+  <r>
+    <s v="******** *******"/>
+    <x v="2"/>
+    <s v="**"/>
+    <s v="LinkedIn"/>
+    <s v="2025-06-24"/>
+    <s v="Contract"/>
+    <s v="2025-06-25"/>
+  </r>
+  <r>
+    <s v="****** **** *******"/>
+    <x v="2"/>
+    <s v="****** ******"/>
+    <s v="LinkedIn"/>
+    <s v="2025-06-23"/>
+    <s v="Contract"/>
+    <s v="2025-06-25"/>
+  </r>
+  <r>
+    <s v="******* *******"/>
+    <x v="2"/>
+    <s v="**"/>
+    <s v="LinkedIn"/>
+    <s v="2025-06-24"/>
+    <s v="Contract"/>
+    <s v="2025-06-25"/>
+  </r>
+  <r>
+    <s v="**** *******"/>
+    <x v="2"/>
+    <s v="**"/>
+    <s v="Dice"/>
+    <s v="2025-06-23"/>
+    <s v="Contract"/>
+    <s v="2025-06-25"/>
+  </r>
+  <r>
+    <s v="Quality Assurance Specialist"/>
+    <x v="3"/>
+    <s v="Greater Boston"/>
+    <s v="LinkedIn"/>
+    <s v="2025-06-24"/>
+    <s v="Contract"/>
+    <s v="2025-06-25"/>
+  </r>
+  <r>
+    <s v="Associate Quality Assurance"/>
+    <x v="3"/>
+    <s v="OH"/>
+    <s v="LinkedIn"/>
+    <s v="2025-06-24"/>
+    <s v="Contract"/>
+    <s v="2025-06-25"/>
+  </r>
+  <r>
+    <s v="Quality Control Specialist"/>
+    <x v="3"/>
+    <s v="United States"/>
+    <s v="LinkedIn"/>
+    <s v="2025-06-24"/>
+    <s v="Contract"/>
+    <s v="2025-06-25"/>
+  </r>
+  <r>
+    <s v="******* ********* ******"/>
+    <x v="3"/>
+    <s v="****** ******"/>
+    <s v="Monster"/>
+    <s v="2025-06-24"/>
+    <s v="Contract"/>
+    <s v="2025-06-25"/>
+  </r>
+  <r>
+    <s v="********** ******* *******"/>
+    <x v="3"/>
+    <s v="**"/>
+    <s v="LinkedIn"/>
+    <s v="2025-06-24"/>
+    <s v="Contract"/>
+    <s v="2025-06-25"/>
+  </r>
+  <r>
+    <s v="******* ********* ********"/>
+    <x v="3"/>
+    <s v="****** ******"/>
+    <s v="Monster"/>
+    <s v="2025-06-23"/>
+    <s v="Contract"/>
+    <s v="2025-06-25"/>
+  </r>
+  <r>
+    <s v="******* ********* ******"/>
+    <x v="3"/>
+    <s v="**"/>
+    <s v="LinkedIn"/>
+    <s v="2025-06-24"/>
+    <s v="Contract"/>
+    <s v="2025-06-25"/>
+  </r>
+  <r>
+    <s v="Quality Engineer"/>
+    <x v="3"/>
+    <s v="MI"/>
+    <s v="LinkedIn"/>
+    <s v="2025-06-24"/>
+    <s v="Contract"/>
+    <s v="2025-06-25"/>
+  </r>
+  <r>
+    <s v="Senior Quality Engineer"/>
+    <x v="3"/>
+    <s v="CA"/>
+    <s v="Dice"/>
+    <s v="2025-06-24"/>
+    <s v="Contract"/>
+    <s v="2025-06-25"/>
+  </r>
+  <r>
+    <s v="(Contract) Senior Quality Engineer"/>
+    <x v="3"/>
+    <s v="United States"/>
+    <s v="Monster"/>
+    <s v="2025-06-24"/>
+    <s v="Contract"/>
+    <s v="2025-06-25"/>
+  </r>
+  <r>
+    <s v="******** ******* ********"/>
+    <x v="3"/>
+    <s v="**"/>
+    <s v="LinkedIn"/>
+    <s v="2025-06-23"/>
+    <s v="Contract"/>
+    <s v="2025-06-25"/>
+  </r>
+  <r>
+    <s v="******* ********"/>
+    <x v="3"/>
+    <s v="**"/>
+    <s v="LinkedIn"/>
+    <s v="2025-06-24"/>
+    <s v="Contract"/>
+    <s v="2025-06-25"/>
+  </r>
+  <r>
+    <s v="******* ******* **********"/>
+    <x v="3"/>
+    <s v="****** ******"/>
+    <s v="Monster"/>
+    <s v="2025-06-24"/>
+    <s v="Contract"/>
+    <s v="2025-06-25"/>
+  </r>
+  <r>
+    <s v="********** ******* *******"/>
+    <x v="3"/>
+    <s v="**"/>
+    <s v="LinkedIn"/>
+    <s v="2025-06-24"/>
+    <s v="Contract"/>
+    <s v="2025-06-25"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{44EDA08E-6B1B-4F76-9CBC-CB28F3EEE67E}" name="PivotTable5" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="3">
+  <location ref="A3:B7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="7">
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField axis="axisRow" dataField="1" compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <items count="4">
+        <item x="2"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="3"/>
+      </items>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Count of Vertical/Industry" fld="1" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="3">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" fillDownLabelsDefault="1" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -762,8 +3982,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G110"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M102" sqref="M102"/>
+    <sheetView tabSelected="1" topLeftCell="A86" workbookViewId="0">
+      <selection activeCell="L105" sqref="L105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3300,5 +6520,66 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92BC3A0E-C493-47B8-9BFF-07D6CE0C2625}">
+  <dimension ref="A3:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B4" s="3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>111</v>
+      </c>
+      <c r="B7" s="3">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Job_Postings_20250625_004828.xlsx
+++ b/Job_Postings_20250625_004828.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Assessment 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{370A4876-BBFD-4CFC-B4E8-E156B7E4889D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D455358-2F3B-4F42-A87C-6A4564B0BA15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   </sheets>
   <calcPr calcId="0"/>
   <pivotCaches>
-    <pivotCache cacheId="9" r:id="rId3"/>
+    <pivotCache cacheId="0" r:id="rId3"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -460,13 +460,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3572,7 +3571,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{44EDA08E-6B1B-4F76-9CBC-CB28F3EEE67E}" name="PivotTable5" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="3">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{44EDA08E-6B1B-4F76-9CBC-CB28F3EEE67E}" name="PivotTable5" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="3">
   <location ref="A3:B7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
@@ -3982,8 +3981,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A86" workbookViewId="0">
-      <selection activeCell="L105" sqref="L105"/>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="J111" sqref="J111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4022,7 +4021,7 @@
         <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>124</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
         <v>11</v>
@@ -4091,7 +4090,7 @@
         <v>18</v>
       </c>
       <c r="D5" t="s">
-        <v>124</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
         <v>11</v>
@@ -4137,7 +4136,7 @@
         <v>18</v>
       </c>
       <c r="D7" t="s">
-        <v>124</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
         <v>11</v>
@@ -4160,7 +4159,7 @@
         <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>124</v>
       </c>
       <c r="E8" t="s">
         <v>11</v>
@@ -4183,7 +4182,7 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>124</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
         <v>11</v>
@@ -4252,7 +4251,7 @@
         <v>23</v>
       </c>
       <c r="D12" t="s">
-        <v>124</v>
+        <v>10</v>
       </c>
       <c r="E12" t="s">
         <v>11</v>
@@ -4344,7 +4343,7 @@
         <v>15</v>
       </c>
       <c r="D16" t="s">
-        <v>124</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
         <v>11</v>
@@ -4436,7 +4435,7 @@
         <v>40</v>
       </c>
       <c r="D20" t="s">
-        <v>124</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
         <v>11</v>
@@ -4482,7 +4481,7 @@
         <v>43</v>
       </c>
       <c r="D22" t="s">
-        <v>124</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
         <v>11</v>
@@ -4666,7 +4665,7 @@
         <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>124</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
         <v>11</v>
@@ -4758,7 +4757,7 @@
         <v>46</v>
       </c>
       <c r="D34" t="s">
-        <v>124</v>
+        <v>10</v>
       </c>
       <c r="E34" t="s">
         <v>11</v>
@@ -4850,7 +4849,7 @@
         <v>50</v>
       </c>
       <c r="D38" t="s">
-        <v>124</v>
+        <v>10</v>
       </c>
       <c r="E38" t="s">
         <v>11</v>
@@ -4873,7 +4872,7 @@
         <v>16</v>
       </c>
       <c r="D39" t="s">
-        <v>124</v>
+        <v>10</v>
       </c>
       <c r="E39" t="s">
         <v>20</v>
@@ -4919,7 +4918,7 @@
         <v>58</v>
       </c>
       <c r="D41" t="s">
-        <v>124</v>
+        <v>10</v>
       </c>
       <c r="E41" t="s">
         <v>11</v>
@@ -4965,7 +4964,7 @@
         <v>61</v>
       </c>
       <c r="D43" t="s">
-        <v>125</v>
+        <v>10</v>
       </c>
       <c r="E43" t="s">
         <v>11</v>
@@ -5034,7 +5033,7 @@
         <v>65</v>
       </c>
       <c r="D46" t="s">
-        <v>125</v>
+        <v>10</v>
       </c>
       <c r="E46" t="s">
         <v>11</v>
@@ -5080,7 +5079,7 @@
         <v>16</v>
       </c>
       <c r="D48" t="s">
-        <v>125</v>
+        <v>10</v>
       </c>
       <c r="E48" t="s">
         <v>20</v>
@@ -5126,7 +5125,7 @@
         <v>50</v>
       </c>
       <c r="D50" t="s">
-        <v>124</v>
+        <v>10</v>
       </c>
       <c r="E50" t="s">
         <v>20</v>
@@ -5195,7 +5194,7 @@
         <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>125</v>
+        <v>10</v>
       </c>
       <c r="E53" t="s">
         <v>11</v>
@@ -5241,7 +5240,7 @@
         <v>74</v>
       </c>
       <c r="D55" t="s">
-        <v>125</v>
+        <v>10</v>
       </c>
       <c r="E55" t="s">
         <v>11</v>
@@ -5287,7 +5286,7 @@
         <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>124</v>
+        <v>10</v>
       </c>
       <c r="E57" t="s">
         <v>11</v>
@@ -5333,7 +5332,7 @@
         <v>42</v>
       </c>
       <c r="D59" t="s">
-        <v>125</v>
+        <v>10</v>
       </c>
       <c r="E59" t="s">
         <v>11</v>
@@ -5448,7 +5447,7 @@
         <v>15</v>
       </c>
       <c r="D64" t="s">
-        <v>124</v>
+        <v>10</v>
       </c>
       <c r="E64" t="s">
         <v>20</v>
@@ -5770,7 +5769,7 @@
         <v>46</v>
       </c>
       <c r="D78" t="s">
-        <v>124</v>
+        <v>10</v>
       </c>
       <c r="E78" t="s">
         <v>20</v>
@@ -5839,7 +5838,7 @@
         <v>18</v>
       </c>
       <c r="D81" t="s">
-        <v>125</v>
+        <v>10</v>
       </c>
       <c r="E81" t="s">
         <v>20</v>
@@ -6023,7 +6022,7 @@
         <v>23</v>
       </c>
       <c r="D89" t="s">
-        <v>125</v>
+        <v>10</v>
       </c>
       <c r="E89" t="s">
         <v>11</v>
@@ -6276,7 +6275,7 @@
         <v>23</v>
       </c>
       <c r="D100" t="s">
-        <v>125</v>
+        <v>10</v>
       </c>
       <c r="E100" t="s">
         <v>11</v>
@@ -6322,7 +6321,7 @@
         <v>23</v>
       </c>
       <c r="D102" t="s">
-        <v>125</v>
+        <v>10</v>
       </c>
       <c r="E102" t="s">
         <v>20</v>
@@ -6414,7 +6413,7 @@
         <v>15</v>
       </c>
       <c r="D106" t="s">
-        <v>125</v>
+        <v>10</v>
       </c>
       <c r="E106" t="s">
         <v>11</v>
@@ -6483,7 +6482,7 @@
         <v>23</v>
       </c>
       <c r="D109" t="s">
-        <v>125</v>
+        <v>10</v>
       </c>
       <c r="E109" t="s">
         <v>11</v>
@@ -6550,7 +6549,7 @@
       <c r="A4" t="s">
         <v>99</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4">
         <v>14</v>
       </c>
     </row>
@@ -6558,7 +6557,7 @@
       <c r="A5" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5">
         <v>14</v>
       </c>
     </row>
@@ -6566,7 +6565,7 @@
       <c r="A6" t="s">
         <v>34</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6">
         <v>67</v>
       </c>
     </row>
@@ -6574,7 +6573,7 @@
       <c r="A7" t="s">
         <v>111</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7">
         <v>14</v>
       </c>
     </row>

--- a/Job_Postings_20250625_004828.xlsx
+++ b/Job_Postings_20250625_004828.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Assessment 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D455358-2F3B-4F42-A87C-6A4564B0BA15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34F7286C-8D66-4266-8C92-DFC8A8065D8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -411,7 +411,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -423,6 +423,12 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -2499,6 +2505,117 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>464820</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="6309741" cy="1031693"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="TextBox 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CCB860B8-6208-89A1-0FCB-116406579AED}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6560820" y="18889980"/>
+          <a:ext cx="6309741" cy="1031693"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1200" b="1" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ERP: High demand for SAP and Oracle roles, especially in larger states and metro areas.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1200" b="1" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Infra &amp; BT: Steady demand for Infrastructure Engineers and Business Technology roles.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1200" b="1" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>DevOps &amp; BI: Strong presence of DevOps and BI roles, with many postings in tech-centric states.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1200" b="1" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>QA/QE: Quality Assurance and Engineering roles were present but fewer than ERP/DevOps.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-IN" sz="1200" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3982,7 +4099,7 @@
   <dimension ref="A1:G110"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="J111" sqref="J111"/>
+      <selection activeCell="I112" sqref="I112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6518,6 +6635,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
 </worksheet>
